--- a/nba_extended_value_index.xlsx
+++ b/nba_extended_value_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozoma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBAAD7-109D-4E5A-A470-32CA20E86110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9845570-014A-486C-9266-3D8128D28C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
